--- a/生徒コマ数表テンプレート.xlsx
+++ b/生徒コマ数表テンプレート.xlsx
@@ -5,22 +5,69 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="生徒コマ数表" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="隣接NG設定" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>学校名</t>
+  </si>
   <si>
     <t>生徒名</t>
   </si>
   <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>コマ数</t>
+    <t>英</t>
+  </si>
+  <si>
+    <t>英検</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>算</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>政</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>日</t>
   </si>
   <si>
     <t>希望講師</t>
@@ -29,106 +76,91 @@
     <t>NG講師</t>
   </si>
   <si>
-    <t>希望曜日</t>
-  </si>
-  <si>
-    <t>希望時間帯</t>
-  </si>
-  <si>
-    <t>NG曜日</t>
-  </si>
-  <si>
-    <t>NG時間帯</t>
+    <t>NG生徒</t>
+  </si>
+  <si>
+    <t>希望時間</t>
+  </si>
+  <si>
+    <t>NG日程</t>
   </si>
   <si>
     <t>備考</t>
   </si>
   <si>
-    <t>田中太郎</t>
-  </si>
-  <si>
-    <t>数学</t>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>南蒲小</t>
+  </si>
+  <si>
+    <t>松橋</t>
   </si>
   <si>
     <t>西T</t>
   </si>
   <si>
-    <t>佐藤T,山田T</t>
-  </si>
-  <si>
-    <t>月,水,金</t>
-  </si>
-  <si>
-    <t>15:00-18:00</t>
-  </si>
-  <si>
-    <t/>
+    <t>水17,金17,月17,木17</t>
+  </si>
+  <si>
+    <t>火,土</t>
+  </si>
+  <si>
+    <t>糀谷小</t>
+  </si>
+  <si>
+    <t>深澤</t>
+  </si>
+  <si>
+    <t>田中T</t>
+  </si>
+  <si>
+    <t>月17,火17,木17,月16,火16,木16</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>東中</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>鈴木T</t>
+  </si>
+  <si>
+    <t>山田T</t>
+  </si>
+  <si>
+    <t>月18,水18,金18</t>
   </si>
   <si>
     <t>受験生</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>鈴木T</t>
-  </si>
-  <si>
-    <t>佐藤花子</t>
-  </si>
-  <si>
-    <t>火,木</t>
-  </si>
-  <si>
-    <t>16:00-19:00</t>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-  </si>
-  <si>
-    <t>部活あり</t>
-  </si>
-  <si>
-    <t>鈴木一郎</t>
-  </si>
-  <si>
-    <t>理科</t>
-  </si>
-  <si>
-    <t>山田T</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>10:00-15:00</t>
-  </si>
-  <si>
-    <t>土曜のみ通塾</t>
-  </si>
-  <si>
-    <t>【記入例】希望講師・NG講師: 苗字+"T"で指定（例: 西T, 田中T）。複数指定時はカンマ区切り。希望曜日: 月,火,水,木,金,土,日。希望時間帯: HH:MM-HH:MM形式（例: 15:00-18:00）</t>
-  </si>
-  <si>
-    <t>隣接NG生徒名</t>
-  </si>
-  <si>
-    <t>理由</t>
-  </si>
-  <si>
-    <t>鈴木一郎,高橋次郎</t>
-  </si>
-  <si>
-    <t>私語防止</t>
-  </si>
-  <si>
-    <t>山田三郎</t>
-  </si>
-  <si>
-    <t>集中力維持</t>
-  </si>
-  <si>
-    <t>【記入例】隣接NG生徒名: 複数指定時はカンマ区切り（例: 田中太郎,佐藤花子）。同じブースまたは隣のブースに座らせたくない生徒を指定します。</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>西高</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>山田T,西T</t>
+  </si>
+  <si>
+    <t>火19,木19,土17</t>
+  </si>
+  <si>
+    <t>月,水</t>
+  </si>
+  <si>
+    <t>理系</t>
+  </si>
+  <si>
+    <t>【記入例】学年: S4=小4, M1=中1, H2=高2。科目コマ数: 週に必要なコマ数を数字で入力（0または空欄でスキップ）。希望講師/NG講師/NG生徒: 苗字+"T"または生徒名。複数はカンマ区切り。希望時間: 曜日+時刻形式（例: 月17,水19 = 月曜17時,水曜19時）。NG日程: 曜日のカンマ区切り（例: 火,土）</t>
   </si>
 </sst>
 </file>
@@ -145,11 +177,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
@@ -158,7 +190,7 @@
       <name val="Meiryo UI"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,11 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,12 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,17 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:Z7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="20" width="4" customWidth="1"/>
+    <col min="21" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="25" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18" customHeight="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,138 +622,378 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" ht="40" customHeight="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -740,69 +1004,26 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:J7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:Z7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
